--- a/ERD.xlsx
+++ b/ERD.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdanh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DuAnCuoiCung\PRO2112\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4513D53A-C62C-4E4B-93AE-81A7A8EC018E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE336E8F-8958-46B4-8368-C30CDD6B700D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ERD" sheetId="1" r:id="rId1"/>
+    <sheet name="ProductName" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="109">
   <si>
     <t>Category</t>
   </si>
@@ -169,15 +169,219 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Rau gia vị</t>
+  </si>
+  <si>
+    <t>Rau ăn thân</t>
+  </si>
+  <si>
+    <t>Nấm</t>
+  </si>
+  <si>
+    <t>Củ</t>
+  </si>
+  <si>
+    <t>Quả</t>
+  </si>
+  <si>
+    <t>Sữa</t>
+  </si>
+  <si>
+    <t>Rau răm</t>
+  </si>
+  <si>
+    <t>Rau muống</t>
+  </si>
+  <si>
+    <t>Nấm rơm</t>
+  </si>
+  <si>
+    <t>Cà rốt</t>
+  </si>
+  <si>
+    <t>Dưa leo</t>
+  </si>
+  <si>
+    <t>Đậu nành</t>
+  </si>
+  <si>
+    <t>Rau ngò</t>
+  </si>
+  <si>
+    <t>Rau dền</t>
+  </si>
+  <si>
+    <t>Nấm mỡ</t>
+  </si>
+  <si>
+    <t>Củ Cải trắng</t>
+  </si>
+  <si>
+    <t>Cà chua</t>
+  </si>
+  <si>
+    <t>Đậu đỏ</t>
+  </si>
+  <si>
+    <t>Rau quế</t>
+  </si>
+  <si>
+    <t>Rau lan</t>
+  </si>
+  <si>
+    <t>Nấm đông cô</t>
+  </si>
+  <si>
+    <t>Cãi Súp Lơ</t>
+  </si>
+  <si>
+    <t>Cà</t>
+  </si>
+  <si>
+    <t>Đậu xanh</t>
+  </si>
+  <si>
+    <t>Sả</t>
+  </si>
+  <si>
+    <t>Rau mồng tơi</t>
+  </si>
+  <si>
+    <t>Cãi súp lơ trắng</t>
+  </si>
+  <si>
+    <t>Chanh vàng</t>
+  </si>
+  <si>
+    <t>Bắp</t>
+  </si>
+  <si>
+    <t>Lá lốt</t>
+  </si>
+  <si>
+    <t>Xà lách</t>
+  </si>
+  <si>
+    <t>Cà rốt trắng</t>
+  </si>
+  <si>
+    <t>Bí đỏ</t>
+  </si>
+  <si>
+    <t>Húng lủi</t>
+  </si>
+  <si>
+    <t>Cải ngọt</t>
+  </si>
+  <si>
+    <t>Khoai lang</t>
+  </si>
+  <si>
+    <t>Khổ qua</t>
+  </si>
+  <si>
+    <t>Rau hẹ</t>
+  </si>
+  <si>
+    <t>Cải chua</t>
+  </si>
+  <si>
+    <t>Khoai tây</t>
+  </si>
+  <si>
+    <t>Chanh không hạt</t>
+  </si>
+  <si>
+    <t>Hành tây</t>
+  </si>
+  <si>
+    <t>Cải xanh</t>
+  </si>
+  <si>
+    <t>Gừng</t>
+  </si>
+  <si>
+    <t>Bí đao</t>
+  </si>
+  <si>
+    <t>Tía tô</t>
+  </si>
+  <si>
+    <t>Măng</t>
+  </si>
+  <si>
+    <t>Nghệ</t>
+  </si>
+  <si>
+    <t>Ớt xanh</t>
+  </si>
+  <si>
+    <t>Húng quế</t>
+  </si>
+  <si>
+    <t>Rau má</t>
+  </si>
+  <si>
+    <t>Tỏi</t>
+  </si>
+  <si>
+    <t>Ớt hiểm</t>
+  </si>
+  <si>
+    <t>Diếp cá</t>
+  </si>
+  <si>
+    <t>Giá</t>
+  </si>
+  <si>
+    <t>Hành</t>
+  </si>
+  <si>
+    <t>Ớt vàng Đà Lạt</t>
+  </si>
+  <si>
+    <t>Hành lá</t>
+  </si>
+  <si>
+    <t>Ớt xanh Dà Lạt</t>
+  </si>
+  <si>
+    <t>Đậu hà lan</t>
+  </si>
+  <si>
+    <t>Ớt đỏ Đà Lạt</t>
+  </si>
+  <si>
+    <t>Đậu bắp</t>
+  </si>
+  <si>
+    <t>Đậu đũa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -256,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -273,6 +477,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,7 +1495,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
@@ -1295,7 +1503,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>95253</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1310,13 +1518,60 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3114675" y="466726"/>
-          <a:ext cx="3333750" cy="2295525"/>
+          <a:off x="3076575" y="466726"/>
+          <a:ext cx="3371850" cy="2295527"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 42000"/>
+            <a:gd name="adj1" fmla="val 48023"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3028950" y="657225"/>
+          <a:ext cx="7686675" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -1638,11 +1893,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9DDC7C-A2FE-44CF-84EB-B5CE8EB3EBA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,8 +1946,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="5" t="s">
-        <v>5</v>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>4</v>
@@ -1702,9 +1957,6 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="M6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1806,12 +2058,12 @@
         <v>23</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
       <c r="R17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="5:18" x14ac:dyDescent="0.25">
@@ -1933,4 +2185,285 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>